--- a/contratos/contratos-3-2010.xlsx
+++ b/contratos/contratos-3-2010.xlsx
@@ -670,7 +670,7 @@
     <t>LANGONI JAVIER JOSE</t>
   </si>
   <si>
-    <t>PITTER ROLANDO L.J, CERGNEUX MARIO M. Y CERGNEUX DANIEL F.  S.H.</t>
+    <t>PITTER ROLANDO LJ. CERGNEUX MARIO M Y CERGNEUX DANIEL F  SH</t>
   </si>
   <si>
     <t>RODE PABLO DANIEL</t>
@@ -688,16 +688,16 @@
     <t>DIAZ JULIA Y DUARTE LAUTARO</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
-  </si>
-  <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>LEIVA GISELA NOEMI</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>BOUZENARD EDUARDO ABEL</t>
@@ -1150,454 +1150,454 @@
     <t>44</t>
   </si>
   <si>
-    <t>95.169,60</t>
-  </si>
-  <si>
-    <t>284,00</t>
-  </si>
-  <si>
-    <t>25.500,00</t>
-  </si>
-  <si>
-    <t>994,96</t>
-  </si>
-  <si>
-    <t>395,00</t>
-  </si>
-  <si>
-    <t>485,00</t>
-  </si>
-  <si>
-    <t>14.544,00</t>
-  </si>
-  <si>
-    <t>43.540,00</t>
-  </si>
-  <si>
-    <t>27.025,59</t>
-  </si>
-  <si>
-    <t>12,76</t>
-  </si>
-  <si>
-    <t>3.044,40</t>
-  </si>
-  <si>
-    <t>29.726,95</t>
-  </si>
-  <si>
-    <t>7.184,21</t>
-  </si>
-  <si>
-    <t>206,40</t>
-  </si>
-  <si>
-    <t>743,20</t>
-  </si>
-  <si>
-    <t>302,11</t>
-  </si>
-  <si>
-    <t>7.065,79</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>413,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>848,00</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>22.087,71</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>14.750,75</t>
-  </si>
-  <si>
-    <t>403,15</t>
-  </si>
-  <si>
-    <t>2.150,68</t>
-  </si>
-  <si>
-    <t>1.023,41</t>
-  </si>
-  <si>
-    <t>129,00</t>
-  </si>
-  <si>
-    <t>15,65</t>
-  </si>
-  <si>
-    <t>383,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>2.054,00</t>
-  </si>
-  <si>
-    <t>27.845,01</t>
-  </si>
-  <si>
-    <t>82,46</t>
-  </si>
-  <si>
-    <t>310,00</t>
-  </si>
-  <si>
-    <t>63,40</t>
-  </si>
-  <si>
-    <t>6.035,19</t>
-  </si>
-  <si>
-    <t>355,74</t>
-  </si>
-  <si>
-    <t>68,00</t>
-  </si>
-  <si>
-    <t>89,10</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>699,65</t>
-  </si>
-  <si>
-    <t>545,00</t>
-  </si>
-  <si>
-    <t>3.192,00</t>
-  </si>
-  <si>
-    <t>93,50</t>
-  </si>
-  <si>
-    <t>464,00</t>
-  </si>
-  <si>
-    <t>17.450,00</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>697,00</t>
-  </si>
-  <si>
-    <t>1.008,20</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>355,00</t>
-  </si>
-  <si>
-    <t>2.278,00</t>
-  </si>
-  <si>
-    <t>392,04</t>
-  </si>
-  <si>
-    <t>24.440,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>825,00</t>
-  </si>
-  <si>
-    <t>1.769,00</t>
-  </si>
-  <si>
-    <t>53,00</t>
-  </si>
-  <si>
-    <t>10.234,00</t>
-  </si>
-  <si>
-    <t>1.482,00</t>
-  </si>
-  <si>
-    <t>1.354,40</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>465,48</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>679,50</t>
-  </si>
-  <si>
-    <t>430,00</t>
-  </si>
-  <si>
-    <t>4.049,00</t>
-  </si>
-  <si>
-    <t>197.641,40</t>
-  </si>
-  <si>
-    <t>508,50</t>
-  </si>
-  <si>
-    <t>776,00</t>
-  </si>
-  <si>
-    <t>177,00</t>
-  </si>
-  <si>
-    <t>1.182,50</t>
-  </si>
-  <si>
-    <t>3.406,00</t>
-  </si>
-  <si>
-    <t>2.216,50</t>
-  </si>
-  <si>
-    <t>1.571,75</t>
-  </si>
-  <si>
-    <t>469,51</t>
-  </si>
-  <si>
-    <t>67,04</t>
-  </si>
-  <si>
-    <t>8.484,00</t>
-  </si>
-  <si>
-    <t>1.063,00</t>
-  </si>
-  <si>
-    <t>4.690,26</t>
-  </si>
-  <si>
-    <t>336,00</t>
-  </si>
-  <si>
-    <t>26.148,00</t>
-  </si>
-  <si>
-    <t>3.120,00</t>
-  </si>
-  <si>
-    <t>899,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>1.348,48</t>
-  </si>
-  <si>
-    <t>51,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>2.668,75</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>9.390,00</t>
-  </si>
-  <si>
-    <t>1.240,04</t>
-  </si>
-  <si>
-    <t>144,70</t>
-  </si>
-  <si>
-    <t>4.642,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>385,00</t>
-  </si>
-  <si>
-    <t>4.444,24</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>1.160,00</t>
-  </si>
-  <si>
-    <t>10.382,42</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>884,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>287,80</t>
-  </si>
-  <si>
-    <t>379,00</t>
-  </si>
-  <si>
-    <t>174,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>437,00</t>
-  </si>
-  <si>
-    <t>211,84</t>
-  </si>
-  <si>
-    <t>44.242,96</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>2.639,00</t>
-  </si>
-  <si>
-    <t>1.217,26</t>
-  </si>
-  <si>
-    <t>48,00</t>
-  </si>
-  <si>
-    <t>7.073,55</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>7,50</t>
-  </si>
-  <si>
-    <t>3.873,21</t>
-  </si>
-  <si>
-    <t>4.550,00</t>
-  </si>
-  <si>
-    <t>2.009,00</t>
-  </si>
-  <si>
-    <t>5.960,00</t>
-  </si>
-  <si>
-    <t>111,00</t>
-  </si>
-  <si>
-    <t>1.074,00</t>
-  </si>
-  <si>
-    <t>43.530,11</t>
-  </si>
-  <si>
-    <t>2.977,41</t>
-  </si>
-  <si>
-    <t>1.530,00</t>
-  </si>
-  <si>
-    <t>1.188,03</t>
-  </si>
-  <si>
-    <t>277.701,95</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>209.436,15</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>923,26</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>16.675,00</t>
-  </si>
-  <si>
-    <t>42,00</t>
-  </si>
-  <si>
-    <t>56,00</t>
-  </si>
-  <si>
-    <t>139,00</t>
+    <t>95169.60</t>
+  </si>
+  <si>
+    <t>284.00</t>
+  </si>
+  <si>
+    <t>25500.00</t>
+  </si>
+  <si>
+    <t>994.96</t>
+  </si>
+  <si>
+    <t>395.00</t>
+  </si>
+  <si>
+    <t>485.00</t>
+  </si>
+  <si>
+    <t>14544.00</t>
+  </si>
+  <si>
+    <t>43540.00</t>
+  </si>
+  <si>
+    <t>27025.59</t>
+  </si>
+  <si>
+    <t>12.76</t>
+  </si>
+  <si>
+    <t>3044.40</t>
+  </si>
+  <si>
+    <t>29726.95</t>
+  </si>
+  <si>
+    <t>7184.21</t>
+  </si>
+  <si>
+    <t>206.40</t>
+  </si>
+  <si>
+    <t>743.20</t>
+  </si>
+  <si>
+    <t>302.11</t>
+  </si>
+  <si>
+    <t>7065.79</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>413.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>848.00</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>22087.71</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>14750.75</t>
+  </si>
+  <si>
+    <t>403.15</t>
+  </si>
+  <si>
+    <t>2150.68</t>
+  </si>
+  <si>
+    <t>1023.41</t>
+  </si>
+  <si>
+    <t>129.00</t>
+  </si>
+  <si>
+    <t>15.65</t>
+  </si>
+  <si>
+    <t>383.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>2054.00</t>
+  </si>
+  <si>
+    <t>27845.01</t>
+  </si>
+  <si>
+    <t>82.46</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>63.40</t>
+  </si>
+  <si>
+    <t>6035.19</t>
+  </si>
+  <si>
+    <t>355.74</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>89.10</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>699.65</t>
+  </si>
+  <si>
+    <t>545.00</t>
+  </si>
+  <si>
+    <t>3192.00</t>
+  </si>
+  <si>
+    <t>93.50</t>
+  </si>
+  <si>
+    <t>464.00</t>
+  </si>
+  <si>
+    <t>17450.00</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>697.00</t>
+  </si>
+  <si>
+    <t>1008.20</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>355.00</t>
+  </si>
+  <si>
+    <t>2278.00</t>
+  </si>
+  <si>
+    <t>392.04</t>
+  </si>
+  <si>
+    <t>24440.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>825.00</t>
+  </si>
+  <si>
+    <t>1769.00</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>10234.00</t>
+  </si>
+  <si>
+    <t>1482.00</t>
+  </si>
+  <si>
+    <t>1354.40</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>465.48</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>679.50</t>
+  </si>
+  <si>
+    <t>430.00</t>
+  </si>
+  <si>
+    <t>4049.00</t>
+  </si>
+  <si>
+    <t>197641.40</t>
+  </si>
+  <si>
+    <t>508.50</t>
+  </si>
+  <si>
+    <t>776.00</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>1182.50</t>
+  </si>
+  <si>
+    <t>3406.00</t>
+  </si>
+  <si>
+    <t>2216.50</t>
+  </si>
+  <si>
+    <t>1571.75</t>
+  </si>
+  <si>
+    <t>469.51</t>
+  </si>
+  <si>
+    <t>67.04</t>
+  </si>
+  <si>
+    <t>8484.00</t>
+  </si>
+  <si>
+    <t>1063.00</t>
+  </si>
+  <si>
+    <t>4690.26</t>
+  </si>
+  <si>
+    <t>336.00</t>
+  </si>
+  <si>
+    <t>26148.00</t>
+  </si>
+  <si>
+    <t>3120.00</t>
+  </si>
+  <si>
+    <t>899.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>1348.48</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>2668.75</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>9390.00</t>
+  </si>
+  <si>
+    <t>1240.04</t>
+  </si>
+  <si>
+    <t>144.70</t>
+  </si>
+  <si>
+    <t>4642.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>385.00</t>
+  </si>
+  <si>
+    <t>4444.24</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>1160.00</t>
+  </si>
+  <si>
+    <t>10382.42</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>884.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>287.80</t>
+  </si>
+  <si>
+    <t>379.00</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>437.00</t>
+  </si>
+  <si>
+    <t>211.84</t>
+  </si>
+  <si>
+    <t>44242.96</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>2639.00</t>
+  </si>
+  <si>
+    <t>1217.26</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7073.55</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>7.50</t>
+  </si>
+  <si>
+    <t>3873.21</t>
+  </si>
+  <si>
+    <t>4550.00</t>
+  </si>
+  <si>
+    <t>2009.00</t>
+  </si>
+  <si>
+    <t>5960.00</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>1074.00</t>
+  </si>
+  <si>
+    <t>43530.11</t>
+  </si>
+  <si>
+    <t>2977.41</t>
+  </si>
+  <si>
+    <t>1530.00</t>
+  </si>
+  <si>
+    <t>1188.03</t>
+  </si>
+  <si>
+    <t>277701.95</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>209436.15</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>923.26</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>16675.00</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>139.00</t>
   </si>
 </sst>
 </file>
